--- a/medicine/Enfance/Fairy_Books_d'Andrew_Lang/Fairy_Books_d'Andrew_Lang.xlsx
+++ b/medicine/Enfance/Fairy_Books_d'Andrew_Lang/Fairy_Books_d'Andrew_Lang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fairy_Books_d%27Andrew_Lang</t>
+          <t>Fairy_Books_d'Andrew_Lang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Fairy Books d'Andrew Lang sont une série de douze recueils de contes de fées publiés dans différentes couleurs, entre 1889 et 1910. Chaque volume se distingue par sa propre couleur. En tout, 437 contes provenant d'un large éventail de cultures et de pays sont présentés. Andrew Lang, poète, romancier et critique littéraire écossais, n'a pas recueilli les histoires lui-même à partir de sources primaires orales : il les a compilées à partir d'une grande variété de sources (parfois indiquées avec plus ou moins de précision, parfois sans aucune indication d'origine[1]), ce qui rendit ses collections immensément influentes[2]. Lang a fait traduire un grand nombre de contes pour la première fois en anglais. Comme il l'a reconnu dans les préfaces, bien que Lang ait effectué lui-même la plupart des sélections, sa femme et d'autres traducteurs (et surtout traductrices) ont réalisé une grande partie des versions en anglais. Les livres ont été principalement illustrés par Henry J. Ford. Lancelot Speed et G.P. Jacomb-Hood ont également fourni certaines illustrations.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Fairy Books d'Andrew Lang sont une série de douze recueils de contes de fées publiés dans différentes couleurs, entre 1889 et 1910. Chaque volume se distingue par sa propre couleur. En tout, 437 contes provenant d'un large éventail de cultures et de pays sont présentés. Andrew Lang, poète, romancier et critique littéraire écossais, n'a pas recueilli les histoires lui-même à partir de sources primaires orales : il les a compilées à partir d'une grande variété de sources (parfois indiquées avec plus ou moins de précision, parfois sans aucune indication d'origine), ce qui rendit ses collections immensément influentes. Lang a fait traduire un grand nombre de contes pour la première fois en anglais. Comme il l'a reconnu dans les préfaces, bien que Lang ait effectué lui-même la plupart des sélections, sa femme et d'autres traducteurs (et surtout traductrices) ont réalisé une grande partie des versions en anglais. Les livres ont été principalement illustrés par Henry J. Ford. Lancelot Speed et G.P. Jacomb-Hood ont également fourni certaines illustrations.
 Ses recueils les plus connus sont les douze « Coloured » Fairy Books  ou Andrew Lang's Fairy Books of Many Colors (caractérisés par la couleur de leur couverture), à savoir :
 The Blue Fairy Book (1889)
 The Red Fairy Book (1890)
